--- a/riskRegister.xlsx
+++ b/riskRegister.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cturt\OneDrive\Documents\SimplicityStudio\v4_workspace\RTOS_Final_week3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A31D0BF-758A-427F-99DA-A637AEDA1FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF4096-AB13-4B59-B635-6D188DB3C079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{34D8F752-5359-4CD7-8DC0-BA9167F25E3D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Risk description</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>extra error checking? To see if the physics differ</t>
+  </si>
+  <si>
+    <t>accurate theta transitions</t>
+  </si>
+  <si>
+    <t>LCD Precision</t>
+  </si>
+  <si>
+    <t>impact LCD as well as other functions</t>
+  </si>
+  <si>
+    <t>update frequency could lead to poor resolution</t>
   </si>
 </sst>
 </file>
@@ -79,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,7 +452,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -492,14 +513,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
